--- a/Pflegekraft Persona.xlsx
+++ b/Pflegekraft Persona.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\Ambiente Systeme\Praktikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\miau-pflegetagebuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B7668F6-2E94-4227-A6B1-523BC650D98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CA9422-4EEE-4628-9AF7-FFFBB0718920}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A9843C7F-90E1-4381-BEAC-55D87A9A0783}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9843C7F-90E1-4381-BEAC-55D87A9A0783}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Persona</t>
   </si>
@@ -59,15 +57,6 @@
     <t>Familienstand:</t>
   </si>
   <si>
-    <t>Aktivitäten priv.</t>
-  </si>
-  <si>
-    <t>Motive</t>
-  </si>
-  <si>
-    <t>Aktivitäten (beruf.)</t>
-  </si>
-  <si>
     <t>Pflegekraft</t>
   </si>
   <si>
@@ -92,17 +81,31 @@
     <t>Kinderbetreuung</t>
   </si>
   <si>
-    <t>Fernsehen,
-Lesen</t>
-  </si>
-  <si>
-    <t>Putzen, Kochen, Waschen,
-Medikamente verreichen, 
-Gesellschafft leisten</t>
-  </si>
-  <si>
-    <t>Geld verdienen,
-Menschen helfen</t>
+    <t>Medikamente verabreichen</t>
+  </si>
+  <si>
+    <t>Gesellschafft leisten</t>
+  </si>
+  <si>
+    <t>Pflegebedürftigen Waschen</t>
+  </si>
+  <si>
+    <t>Möchte die zu erleigenden Aufgaben wissen</t>
+  </si>
+  <si>
+    <t>Möchte festhalten, dass eine Aufgabe erledigt wurde</t>
+  </si>
+  <si>
+    <t>Möchte Informationen zum Gesundheitszustand festhalten</t>
+  </si>
+  <si>
+    <t>Möchte Informationen zur Selbstständigkeit des Pflegebedürftigen festhalten</t>
+  </si>
+  <si>
+    <t>Aktivitäten:</t>
+  </si>
+  <si>
+    <t>Motive:</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,11 +160,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -169,13 +209,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,16 +543,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D10E95-9BA0-48CE-A803-FA5BF446D36B}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,42 +613,68 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
